--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Iseli\Documents\_Sem3HS\BTX8081 - Software Engineering and Design\CS1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Iseli\workspace\btx8081_w2015_blue\doc\task10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -244,6 +244,18 @@
   </si>
   <si>
     <t>Controller</t>
+  </si>
+  <si>
+    <t>Testing the first Sprint</t>
+  </si>
+  <si>
+    <t>Testing the Object of the first Sprint</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>open</t>
   </si>
 </sst>
 </file>
@@ -711,7 +723,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -764,7 +776,7 @@
       </c>
       <c r="E2" s="1">
         <f>SUM('Sprint Backlog'!I2:I8)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -778,8 +790,8 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <f>SUM('Sprint Backlog'!I9:I12)</f>
-        <v>16</v>
+        <f>SUM('Sprint Backlog'!I9:I13)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -840,10 +852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -919,6 +931,9 @@
       <c r="I2">
         <v>2</v>
       </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -939,6 +954,9 @@
       <c r="I3">
         <v>4</v>
       </c>
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -959,6 +977,9 @@
       <c r="I4">
         <v>4</v>
       </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -979,6 +1000,9 @@
       <c r="I5">
         <v>2</v>
       </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -1006,7 +1030,10 @@
         <v>60</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -1037,6 +1064,9 @@
       <c r="I7">
         <v>6</v>
       </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -1066,6 +1096,9 @@
       <c r="I8">
         <v>2</v>
       </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -1096,6 +1129,9 @@
       <c r="I9">
         <v>6</v>
       </c>
+      <c r="L9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -1125,6 +1161,9 @@
       <c r="I10">
         <v>2</v>
       </c>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -1154,6 +1193,9 @@
       <c r="I11">
         <v>2</v>
       </c>
+      <c r="L11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -1182,6 +1224,41 @@
       </c>
       <c r="I12">
         <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2.7</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -244,15 +244,6 @@
   </si>
   <si>
     <t>Controller</t>
-  </si>
-  <si>
-    <t>Testing the first Sprint</t>
-  </si>
-  <si>
-    <t>Testing the Object of the first Sprint</t>
-  </si>
-  <si>
-    <t>Tests</t>
   </si>
   <si>
     <t>open</t>
@@ -791,7 +782,7 @@
       </c>
       <c r="E3">
         <f>SUM('Sprint Backlog'!I9:I13)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -855,7 +846,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -955,7 +946,7 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -978,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -1001,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="58" x14ac:dyDescent="0.35">
@@ -1033,7 +1024,7 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -1065,7 +1056,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -1097,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -1130,7 +1121,7 @@
         <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -1162,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -1194,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -1226,40 +1217,11 @@
         <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2.7</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="L13" t="s">
-        <v>77</v>
-      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>open</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -846,7 +852,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1024,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -1056,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -1087,8 +1093,11 @@
       <c r="I8">
         <v>2</v>
       </c>
+      <c r="K8">
+        <v>0.33</v>
+      </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -1120,8 +1129,11 @@
       <c r="I9">
         <v>6</v>
       </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
@@ -1152,8 +1164,11 @@
       <c r="I10">
         <v>2</v>
       </c>
+      <c r="K10">
+        <v>0.33</v>
+      </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -1184,8 +1199,11 @@
       <c r="I11">
         <v>2</v>
       </c>
+      <c r="K11">
+        <v>0.33</v>
+      </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -1217,7 +1235,7 @@
         <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -253,6 +253,63 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>Planing</t>
+  </si>
+  <si>
+    <t>Implement Dummy Patients</t>
+  </si>
+  <si>
+    <t>Create GUI Planning Patient List</t>
+  </si>
+  <si>
+    <t>Create GUI Planning new Patient</t>
+  </si>
+  <si>
+    <t>Implement Info Tab Detail</t>
+  </si>
+  <si>
+    <t>Implement Treatment Overview Tab</t>
+  </si>
+  <si>
+    <t>Implement Appointment Tab</t>
+  </si>
+  <si>
+    <t>Implement Patent Detail View</t>
+  </si>
+  <si>
+    <t>Implementing the monthly Calendar view according the planned state event diagramm</t>
+  </si>
+  <si>
+    <t>Implementing the weekly Calendar view according the planned state event diagramm</t>
+  </si>
+  <si>
+    <t>Implement Patient retrieve functionality UIController</t>
+  </si>
+  <si>
+    <t>Implement Patient List View</t>
+  </si>
+  <si>
+    <t>Plan State-Event-Diagram for Pat.Status</t>
+  </si>
+  <si>
+    <t>Implement new Patient view</t>
+  </si>
+  <si>
+    <t>Implement new Patient logic</t>
+  </si>
+  <si>
+    <t>Implement the weekly view</t>
+  </si>
+  <si>
+    <t>Implement the monthly view</t>
+  </si>
+  <si>
+    <t>Implement new Appointment Pop-Up View</t>
+  </si>
+  <si>
+    <t>Implement new Appointment Pop-Up UIController</t>
   </si>
 </sst>
 </file>
@@ -296,7 +353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -304,11 +361,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -327,6 +393,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,7 +795,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -787,8 +862,8 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <f>SUM('Sprint Backlog'!I9:I13)</f>
-        <v>16</v>
+        <f>SUM('Sprint Backlog'!I9:I15)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -849,17 +924,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
     <col min="2" max="2" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.453125" customWidth="1"/>
     <col min="5" max="5" width="13.90625" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
@@ -1029,6 +1104,9 @@
       <c r="I6">
         <v>4</v>
       </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
       <c r="L6" t="s">
         <v>75</v>
       </c>
@@ -1061,6 +1139,9 @@
       <c r="I7">
         <v>6</v>
       </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
       <c r="L7" t="s">
         <v>75</v>
       </c>
@@ -1094,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="K8">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="L8" t="s">
         <v>76</v>
@@ -1132,6 +1213,9 @@
       <c r="J9">
         <v>8</v>
       </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
       <c r="L9" t="s">
         <v>75</v>
       </c>
@@ -1165,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="K10">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="L10" t="s">
         <v>76</v>
@@ -1200,46 +1284,375 @@
         <v>2</v>
       </c>
       <c r="K11">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="L11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
         <v>2.6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="8">
         <v>6</v>
       </c>
-      <c r="L12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="D13" s="2"/>
+      <c r="K12" s="8">
+        <v>4</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>2.7</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>3.1</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3.2</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4.2</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>4.3</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>4.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>4.7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>4.8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>5.2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>5.3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>5.4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I30">
+        <f>SUM(I13:I24)</f>
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -927,7 +927,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1509,7 +1509,7 @@
         <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>17</v>
@@ -1532,7 +1532,7 @@
         <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>17</v>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Iseli\workspace\btx8081_w2015_blue\doc\task10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13970" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16752" windowHeight="4980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,12 +12,13 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -315,8 +311,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +324,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -374,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -402,9 +405,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,7 +424,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -712,14 +716,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -730,7 +734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -741,7 +745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -752,7 +756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -763,7 +767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -774,7 +778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -798,19 +802,19 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -836,7 +840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -851,7 +855,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -866,7 +870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -877,7 +881,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -888,7 +892,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -899,7 +903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -910,7 +914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -926,27 +930,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="H15" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="45.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" customWidth="1"/>
-    <col min="11" max="11" width="10.6328125" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="3" max="3" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -984,7 +988,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1030,7 +1034,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.7</v>
       </c>
@@ -1182,7 +1186,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.2000000000000002</v>
       </c>
@@ -1220,7 +1224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.2999999999999998</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.5</v>
       </c>
@@ -1290,7 +1294,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2.6</v>
       </c>
@@ -1325,7 +1329,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>2.7</v>
       </c>
@@ -1351,8 +1355,14 @@
       <c r="I13" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="K13" s="12">
+        <v>2</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>2.8</v>
       </c>
@@ -1378,8 +1388,14 @@
       <c r="I14" s="12">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K14" s="12">
+        <v>2</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.1</v>
       </c>
@@ -1403,8 +1419,11 @@
       <c r="I15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L15" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.2</v>
       </c>
@@ -1427,8 +1446,11 @@
       <c r="I16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L16" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4.0999999999999996</v>
       </c>
@@ -1451,8 +1473,11 @@
       <c r="I17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L17" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4.2</v>
       </c>
@@ -1475,8 +1500,11 @@
       <c r="I18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L18" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4.3</v>
       </c>
@@ -1499,8 +1527,11 @@
       <c r="I19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L19" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4.4000000000000004</v>
       </c>
@@ -1523,8 +1554,11 @@
       <c r="I20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L20" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4.5</v>
       </c>
@@ -1546,8 +1580,11 @@
       <c r="I21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L21" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4.5999999999999996</v>
       </c>
@@ -1569,8 +1606,11 @@
       <c r="I22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L22" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4.7</v>
       </c>
@@ -1592,8 +1632,11 @@
       <c r="I23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L23" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.8</v>
       </c>
@@ -1615,8 +1658,11 @@
       <c r="I24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L24" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5.0999999999999996</v>
       </c>
@@ -1624,7 +1670,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5.2</v>
       </c>
@@ -1632,7 +1678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -1640,7 +1686,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.4</v>
       </c>
@@ -1648,7 +1694,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I30">
         <f>SUM(I13:I24)</f>
         <v>60</v>
@@ -1656,6 +1702,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1667,14 +1714,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -1688,7 +1735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1702,7 +1749,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Iseli\workspace\btx8081_w2015_blue\doc\task10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16752" windowHeight="4980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16750" windowHeight="4980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -311,8 +315,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,13 +328,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -377,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -405,10 +402,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,7 +420,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -716,14 +712,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -734,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -745,7 +741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -756,7 +752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -767,7 +763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -778,7 +774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -802,19 +798,19 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="59.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -840,7 +836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -855,7 +851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -870,7 +866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -881,7 +877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -892,7 +888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -903,7 +899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -914,7 +910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -930,27 +926,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H15" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" customWidth="1"/>
+    <col min="3" max="3" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -988,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -1011,7 +1007,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1034,7 +1030,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -1057,7 +1053,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -1080,7 +1076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1115,7 +1111,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -1150,7 +1146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.7</v>
       </c>
@@ -1186,7 +1182,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.2000000000000002</v>
       </c>
@@ -1224,7 +1220,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.2999999999999998</v>
       </c>
@@ -1259,7 +1255,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.5</v>
       </c>
@@ -1294,7 +1290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>2.6</v>
       </c>
@@ -1329,7 +1325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2.7</v>
       </c>
@@ -1358,11 +1354,11 @@
       <c r="K13" s="12">
         <v>2</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2.8</v>
       </c>
@@ -1395,7 +1391,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.1</v>
       </c>
@@ -1419,11 +1415,11 @@
       <c r="I15">
         <v>6</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.2</v>
       </c>
@@ -1450,7 +1446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4.0999999999999996</v>
       </c>
@@ -1473,11 +1469,11 @@
       <c r="I17">
         <v>6</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4.2</v>
       </c>
@@ -1504,7 +1500,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4.3</v>
       </c>
@@ -1527,11 +1523,11 @@
       <c r="I19">
         <v>6</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4.4000000000000004</v>
       </c>
@@ -1558,7 +1554,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4.5</v>
       </c>
@@ -1580,11 +1576,11 @@
       <c r="I21">
         <v>6</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4.5999999999999996</v>
       </c>
@@ -1610,7 +1606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4.7</v>
       </c>
@@ -1632,11 +1628,11 @@
       <c r="I23">
         <v>4</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4.8</v>
       </c>
@@ -1662,7 +1658,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5.0999999999999996</v>
       </c>
@@ -1670,7 +1666,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5.2</v>
       </c>
@@ -1678,7 +1674,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -1686,7 +1682,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>5.4</v>
       </c>
@@ -1694,7 +1690,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I30">
         <f>SUM(I13:I24)</f>
         <v>60</v>
@@ -1714,14 +1710,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -1735,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1749,7 +1745,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -17,12 +17,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -310,6 +310,36 @@
   </si>
   <si>
     <t>Implement new Appointment Pop-Up UIController</t>
+  </si>
+  <si>
+    <t>Implementing the Pop-Up View for the new Appointment with the nessecairy fields</t>
+  </si>
+  <si>
+    <t>Implementing the functionality for the new Appointment function</t>
+  </si>
+  <si>
+    <t>Implementing some dummy Patients for the Patient List view</t>
+  </si>
+  <si>
+    <t>Plan the state event pattern for the Patient State</t>
+  </si>
+  <si>
+    <t>Implement the Pattient List View after hugil1 has designed it and made a prototype</t>
+  </si>
+  <si>
+    <t>Implementing the retrieve Patients functioanality for the Patient List view</t>
+  </si>
+  <si>
+    <t>Implementing the functions (logic) for the new Patient functionsality</t>
+  </si>
+  <si>
+    <t>Creating and Planing the GUI for the Patient List View and make a little prototype</t>
+  </si>
+  <si>
+    <t>Creating and Planing the GUI for the new Patient View with a little Prototype. IMPORTANT: DO SHOW ALL NECESSAIRY FIELDS!!</t>
+  </si>
+  <si>
+    <t>Implementing the popup with the necessairy fields for new Patients functionality</t>
   </si>
 </sst>
 </file>
@@ -926,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1391,7 +1421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.1</v>
       </c>
@@ -1399,7 +1429,9 @@
       <c r="C15" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="E15" t="s">
         <v>72</v>
       </c>
@@ -1419,7 +1451,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.2</v>
       </c>
@@ -1427,6 +1459,9 @@
       <c r="C16" t="s">
         <v>95</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="E16" t="s">
         <v>73</v>
       </c>
@@ -1446,7 +1481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4.0999999999999996</v>
       </c>
@@ -1454,6 +1489,9 @@
       <c r="C17" t="s">
         <v>78</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="E17" t="s">
         <v>71</v>
       </c>
@@ -1473,7 +1511,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4.2</v>
       </c>
@@ -1481,6 +1519,9 @@
       <c r="C18" t="s">
         <v>89</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="E18" t="s">
         <v>77</v>
       </c>
@@ -1500,7 +1541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4.3</v>
       </c>
@@ -1508,6 +1549,9 @@
       <c r="C19" t="s">
         <v>88</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="E19" t="s">
         <v>72</v>
       </c>
@@ -1527,7 +1571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4.4000000000000004</v>
       </c>
@@ -1535,6 +1579,9 @@
       <c r="C20" t="s">
         <v>87</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E20" t="s">
         <v>73</v>
       </c>
@@ -1554,18 +1601,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4.5</v>
       </c>
       <c r="C21" t="s">
         <v>90</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E21" t="s">
         <v>72</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>25</v>
@@ -1580,18 +1630,21 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4.5999999999999996</v>
       </c>
       <c r="C22" t="s">
         <v>91</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="E22" t="s">
         <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
         <v>17</v>
@@ -1606,13 +1659,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4.7</v>
       </c>
       <c r="C23" t="s">
         <v>79</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="E23" t="s">
         <v>72</v>
       </c>
@@ -1632,12 +1688,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4.8</v>
       </c>
       <c r="C24" t="s">
         <v>80</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E24" t="s">
         <v>72</v>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Iseli\workspace\btx8081_w2015_blue\doc\task10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\Fachhochschule\Eclipse\ch.bfh.btx8081.w2015.blue\doc\task10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16750" windowHeight="4980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16752" windowHeight="4980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -742,14 +742,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -760,7 +760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -771,7 +771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -793,7 +793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -804,7 +804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -828,19 +828,19 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -866,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -881,7 +881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -896,7 +896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -907,7 +907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -918,7 +918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -929,7 +929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -940,7 +940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -956,27 +956,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" customWidth="1"/>
-    <col min="11" max="11" width="10.6328125" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="3" max="3" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.7</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.2000000000000002</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.2999999999999998</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.5</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2.6</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>2.7</v>
       </c>
@@ -1382,13 +1382,13 @@
         <v>6</v>
       </c>
       <c r="K13" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>2.8</v>
       </c>
@@ -1415,13 +1415,13 @@
         <v>6</v>
       </c>
       <c r="K14" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.1</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.2</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4.0999999999999996</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4.2</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4.3</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4.4000000000000004</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4.5</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4.5999999999999996</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4.7</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.8</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5.0999999999999996</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5.2</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.4</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I30">
         <f>SUM(I13:I24)</f>
         <v>60</v>
@@ -1769,14 +1769,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\Fachhochschule\Eclipse\ch.bfh.btx8081.w2015.blue\doc\task10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Iseli\workspace\btx8081_w2015_blue\doc\task10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16752" windowHeight="4980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16750" windowHeight="4980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,7 +450,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -742,14 +742,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -760,7 +760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -771,7 +771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -793,7 +793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -804,7 +804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -828,19 +828,19 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="59.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -866,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -881,7 +881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -896,7 +896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -907,7 +907,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -918,7 +918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -929,7 +929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -940,7 +940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -956,27 +956,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" customWidth="1"/>
+    <col min="3" max="3" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.7</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.2000000000000002</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.2999999999999998</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2.5</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8">
         <v>2.6</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2.7</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2.8</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.1</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="58" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.2</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4.0999999999999996</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>4.2</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4.3</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>4.4000000000000004</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4.5</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>4.5999999999999996</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4.7</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4.8</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>5.0999999999999996</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5.2</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>5.4</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I30">
         <f>SUM(I13:I24)</f>
         <v>60</v>
@@ -1769,14 +1769,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1418,7 +1418,7 @@
         <v>4</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="58" x14ac:dyDescent="0.35">
@@ -1447,8 +1447,11 @@
       <c r="I15">
         <v>6</v>
       </c>
+      <c r="K15" s="12">
+        <v>6</v>
+      </c>
       <c r="L15" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="58" x14ac:dyDescent="0.35">
@@ -1477,8 +1480,11 @@
       <c r="I16">
         <v>6</v>
       </c>
+      <c r="K16" s="12">
+        <v>6</v>
+      </c>
       <c r="L16" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -1507,8 +1513,11 @@
       <c r="I17">
         <v>6</v>
       </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
       <c r="L17" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -1537,8 +1546,11 @@
       <c r="I18">
         <v>4</v>
       </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
       <c r="L18" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -1567,8 +1579,11 @@
       <c r="I19">
         <v>6</v>
       </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
       <c r="L19" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -1626,8 +1641,11 @@
       <c r="I21">
         <v>6</v>
       </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
       <c r="L21" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -1684,6 +1702,9 @@
       <c r="I23">
         <v>4</v>
       </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
       <c r="L23" s="12" t="s">
         <v>75</v>
       </c>
@@ -1712,6 +1733,9 @@
       </c>
       <c r="I24">
         <v>4</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>75</v>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -957,7 +957,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
   <si>
     <t>done</t>
@@ -954,10 +951,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1208,7 +1205,7 @@
         <v>0.5</v>
       </c>
       <c r="L8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O8" s="2"/>
     </row>
@@ -1282,7 +1279,7 @@
         <v>0.5</v>
       </c>
       <c r="L10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
@@ -1317,7 +1314,7 @@
         <v>0.5</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="8" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -1352,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -1361,10 +1358,10 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>72</v>
@@ -1385,7 +1382,7 @@
         <v>4</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
@@ -1394,10 +1391,10 @@
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>72</v>
@@ -1418,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="58" x14ac:dyDescent="0.35">
@@ -1427,10 +1424,10 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
         <v>72</v>
@@ -1448,10 +1445,10 @@
         <v>6</v>
       </c>
       <c r="K15" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="58" x14ac:dyDescent="0.35">
@@ -1460,10 +1457,10 @@
       </c>
       <c r="B16" s="12"/>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>73</v>
@@ -1481,10 +1478,10 @@
         <v>6</v>
       </c>
       <c r="K16" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -1493,10 +1490,10 @@
       </c>
       <c r="B17" s="12"/>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
         <v>71</v>
@@ -1517,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -1526,13 +1523,13 @@
       </c>
       <c r="B18" s="12"/>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>17</v>
@@ -1550,7 +1547,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
@@ -1559,10 +1556,10 @@
       </c>
       <c r="B19" s="12"/>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
         <v>72</v>
@@ -1580,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="K19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -1592,10 +1589,10 @@
       </c>
       <c r="B20" s="12"/>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>73</v>
@@ -1610,6 +1607,9 @@
         <v>60</v>
       </c>
       <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
       <c r="L20" s="12" t="s">
@@ -1621,10 +1621,10 @@
         <v>4.5</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
         <v>72</v>
@@ -1642,10 +1642,10 @@
         <v>6</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -1653,10 +1653,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
         <v>73</v>
@@ -1671,6 +1671,9 @@
         <v>60</v>
       </c>
       <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="K22">
         <v>4</v>
       </c>
       <c r="L22" s="12" t="s">
@@ -1682,10 +1685,10 @@
         <v>4.7</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
         <v>72</v>
@@ -1714,10 +1717,10 @@
         <v>4.8</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24" t="s">
         <v>72</v>
@@ -1746,7 +1749,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -1754,7 +1757,7 @@
         <v>5.2</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -1762,7 +1765,7 @@
         <v>5.3</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -1770,13 +1773,7 @@
         <v>5.4</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="I30">
-        <f>SUM(I13:I24)</f>
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Iseli\workspace\btx8081_w2015_blue\doc\task10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\Fachhochschule\Eclipse\ch.bfh.btx8081.w2015.blue\doc\task10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16750" windowHeight="4980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16752" windowHeight="4980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId3"/>
     <sheet name="BurndownChart" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Implement Dummy Appointments for the Calendars</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>medium</t>
   </si>
   <si>
@@ -337,12 +334,84 @@
   </si>
   <si>
     <t>Implementing the popup with the necessairy fields for new Patients functionality</t>
+  </si>
+  <si>
+    <t>hugil1/dornt1</t>
+  </si>
+  <si>
+    <t>Implementing Classes for Treatment</t>
+  </si>
+  <si>
+    <t>Implementing Database Connection Layer</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Implementing Controller for Patient detail Tretment</t>
+  </si>
+  <si>
+    <t>Insert Dummy Data in Database</t>
+  </si>
+  <si>
+    <t>Fill the Database whit dummydata for presenting the project</t>
+  </si>
+  <si>
+    <t>Fix the monthly view</t>
+  </si>
+  <si>
+    <t>Fix new Appointment Pop-Up UIController</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Persistence</t>
+  </si>
+  <si>
+    <t>Implement Authentication in Database</t>
+  </si>
+  <si>
+    <t>Edit code Design for login</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>donw</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>implementing the detail view for the patient</t>
+  </si>
+  <si>
+    <t>implementing the detailview for the treatment overview</t>
+  </si>
+  <si>
+    <t>implementing the view of the appointment tab</t>
+  </si>
+  <si>
+    <t>implementing the view of the detail tab</t>
+  </si>
+  <si>
+    <t>implementing the class whit all mehtos in the model</t>
+  </si>
+  <si>
+    <t>implementing the controller layer for the treatent class</t>
+  </si>
+  <si>
+    <t>implementing the authentication layer for the login view</t>
+  </si>
+  <si>
+    <t>edit the code desing for the login screen. Login screen ist the first view when starting the app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -429,9 +498,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,7 +517,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,14 +809,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -757,7 +827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -768,7 +838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -779,7 +849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -790,7 +860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -801,7 +871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -822,22 +892,22 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="59.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -851,19 +921,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -875,10 +945,14 @@
       </c>
       <c r="E2" s="1">
         <f>SUM('Sprint Backlog'!I2:I8)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <f>SUM('Sprint Backlog'!K2:K8)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -889,11 +963,15 @@
         <v>36</v>
       </c>
       <c r="E3">
+        <f>SUM('Sprint Backlog'!I9:I14)</f>
+        <v>28</v>
+      </c>
+      <c r="G3">
         <f>SUM('Sprint Backlog'!I9:I15)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -903,8 +981,16 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <f>SUM('Sprint Backlog'!I15:I16)</f>
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <f>SUM('Sprint Backlog'!K15:K16)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -914,8 +1000,16 @@
       <c r="C5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <f>SUM('Sprint Backlog'!I17:I24)</f>
+        <v>36</v>
+      </c>
+      <c r="G5">
+        <f>SUM('Sprint Backlog'!K17:K24)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -926,7 +1020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -937,7 +1031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -951,29 +1045,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" customWidth="1"/>
-    <col min="11" max="11" width="10.6328125" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="3" max="3" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -999,111 +1093,19 @@
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1.2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1.3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1.4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.5</v>
       </c>
@@ -1111,13 +1113,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
         <v>68</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>69</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -1126,7 +1128,7 @@
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -1135,10 +1137,10 @@
         <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.6</v>
       </c>
@@ -1146,13 +1148,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1161,7 +1163,7 @@
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -1170,10 +1172,10 @@
         <v>9</v>
       </c>
       <c r="L7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.7</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1196,7 +1198,7 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1205,11 +1207,11 @@
         <v>0.5</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.2000000000000002</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1232,7 +1234,7 @@
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9">
         <v>6</v>
@@ -1244,10 +1246,10 @@
         <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.2999999999999998</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -1270,7 +1272,7 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -1279,10 +1281,10 @@
         <v>0.5</v>
       </c>
       <c r="L10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.5</v>
       </c>
@@ -1296,7 +1298,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1305,7 +1307,7 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -1314,10 +1316,10 @@
         <v>0.5</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="8" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="8" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>2.6</v>
       </c>
@@ -1325,13 +1327,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>25</v>
@@ -1340,7 +1342,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I12" s="8">
         <v>6</v>
@@ -1349,22 +1351,24 @@
         <v>4</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="10" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>2.7</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="12">
+        <v>2</v>
+      </c>
       <c r="C13" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>20</v>
@@ -1373,7 +1377,7 @@
         <v>17</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I13" s="12">
         <v>6</v>
@@ -1382,22 +1386,24 @@
         <v>4</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>2.8</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
       <c r="C14" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>20</v>
@@ -1406,7 +1412,7 @@
         <v>17</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" s="12">
         <v>6</v>
@@ -1415,22 +1421,24 @@
         <v>4</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.1</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="12">
+        <v>2</v>
+      </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>25</v>
@@ -1439,7 +1447,7 @@
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I15">
         <v>6</v>
@@ -1448,22 +1456,24 @@
         <v>8</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.2</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="12">
+        <v>2</v>
+      </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>25</v>
@@ -1472,7 +1482,7 @@
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -1481,22 +1491,24 @@
         <v>8</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="12">
+        <v>2</v>
+      </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>23</v>
@@ -1505,7 +1517,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17">
         <v>6</v>
@@ -1514,22 +1526,24 @@
         <v>2</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4.2</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="12">
+        <v>2</v>
+      </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>17</v>
@@ -1538,7 +1552,7 @@
         <v>27</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18">
         <v>4</v>
@@ -1547,22 +1561,24 @@
         <v>2</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" ht="72" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4.3</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="12">
+        <v>2</v>
+      </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>23</v>
@@ -1571,7 +1587,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -1580,22 +1596,24 @@
         <v>12</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="12">
+        <v>2</v>
+      </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>17</v>
@@ -1604,7 +1622,7 @@
         <v>25</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1613,30 +1631,33 @@
         <v>2</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" ht="72" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4.5</v>
       </c>
+      <c r="B21" s="12">
+        <v>2</v>
+      </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -1645,21 +1666,24 @@
         <v>10</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4.5999999999999996</v>
       </c>
+      <c r="B22" s="12">
+        <v>2</v>
+      </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -1668,7 +1692,7 @@
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I22">
         <v>4</v>
@@ -1677,103 +1701,524 @@
         <v>4</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>4.7</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" s="12">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="10">
+        <v>4</v>
+      </c>
+      <c r="K23" s="10">
+        <v>2</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="8">
+        <v>4</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8">
+        <v>2</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+    </row>
+    <row r="25" spans="1:39" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="B25" s="12">
+        <v>2</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="12">
+        <v>2</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3.2</v>
+      </c>
+      <c r="B26" s="12">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
         <v>72</v>
       </c>
-      <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="F26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
         <v>59</v>
       </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>4.8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>5.2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>5.3</v>
+      <c r="B27" s="12">
+        <v>3</v>
       </c>
       <c r="C27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D27" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>5.2</v>
+      </c>
+      <c r="B28" s="12">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5.3</v>
+      </c>
+      <c r="B29" s="12">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>5.4</v>
       </c>
-      <c r="C28" t="s">
-        <v>83</v>
+      <c r="B30" s="12">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5.5</v>
+      </c>
+      <c r="B31" s="12">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="L31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="L33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1.2</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1.3</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="L35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1.4</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1.4</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="L37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1.5</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="L38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1.6</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1.7</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="L40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <f>SUM(I25:I40)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1790,14 +2235,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -1811,7 +2256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1825,7 +2270,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/doc/task10/scrum_grp_blue.xlsx
+++ b/doc/task10/scrum_grp_blue.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Implementing Database Connection Layer</t>
   </si>
   <si>
-    <t>Waiting</t>
-  </si>
-  <si>
     <t>Implementing Controller for Patient detail Tretment</t>
   </si>
   <si>
@@ -406,6 +403,9 @@
   </si>
   <si>
     <t>edit the code desing for the login screen. Login screen ist the first view when starting the app</t>
+  </si>
+  <si>
+    <t>dnoe</t>
   </si>
 </sst>
 </file>
@@ -1047,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1421,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
@@ -1526,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
@@ -1561,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="72" x14ac:dyDescent="0.3">
@@ -1810,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>83</v>
@@ -1828,6 +1828,9 @@
         <v>59</v>
       </c>
       <c r="I25" s="12">
+        <v>2</v>
+      </c>
+      <c r="J25" s="10">
         <v>2</v>
       </c>
       <c r="K25" s="12"/>
@@ -1843,7 +1846,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>95</v>
@@ -1863,9 +1866,12 @@
       <c r="I26">
         <v>2</v>
       </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
       <c r="K26" s="12"/>
       <c r="L26" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
@@ -1879,7 +1885,7 @@
         <v>82</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
         <v>71</v>
@@ -1890,8 +1896,11 @@
       <c r="I27">
         <v>2</v>
       </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
       <c r="L27" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
@@ -1905,7 +1914,7 @@
         <v>80</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
         <v>71</v>
@@ -1916,8 +1925,11 @@
       <c r="I28">
         <v>2</v>
       </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
       <c r="L28" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
@@ -1931,7 +1943,7 @@
         <v>81</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
         <v>71</v>
@@ -1942,8 +1954,11 @@
       <c r="I29">
         <v>2</v>
       </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
       <c r="L29" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
@@ -1957,7 +1972,7 @@
         <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
         <v>71</v>
@@ -1968,8 +1983,11 @@
       <c r="I30">
         <v>2</v>
       </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
       <c r="L30" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
@@ -1983,10 +2001,10 @@
         <v>105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>17</v>
@@ -1994,25 +2012,34 @@
       <c r="I31">
         <v>4</v>
       </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
       <c r="L31" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I32">
         <v>2</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2029,7 +2056,7 @@
         <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>27</v>
@@ -2040,8 +2067,11 @@
       <c r="I33">
         <v>4</v>
       </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
       <c r="L33" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2058,7 +2088,7 @@
         <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>27</v>
@@ -2069,8 +2099,11 @@
       <c r="I34">
         <v>6</v>
       </c>
+      <c r="J34">
+        <v>12</v>
+      </c>
       <c r="L34" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2085,7 +2118,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>20</v>
@@ -2096,8 +2129,11 @@
       <c r="I35">
         <v>6</v>
       </c>
+      <c r="J35">
+        <v>6</v>
+      </c>
       <c r="L35" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -2108,19 +2144,25 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>20</v>
       </c>
       <c r="I36">
         <v>2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="L36" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -2142,8 +2184,11 @@
       <c r="I37">
         <v>4</v>
       </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
       <c r="L37" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -2162,11 +2207,17 @@
       <c r="F38" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="G38" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="I38">
         <v>4</v>
       </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
       <c r="L38" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -2177,10 +2228,10 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>23</v>
@@ -2188,8 +2239,11 @@
       <c r="I39">
         <v>2</v>
       </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
       <c r="L39" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="72" x14ac:dyDescent="0.3">
@@ -2200,25 +2254,35 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>17</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="I40">
         <v>4</v>
       </c>
+      <c r="J40">
+        <v>12</v>
+      </c>
       <c r="L40" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I41">
         <f>SUM(I25:I40)</f>
         <v>50</v>
+      </c>
+      <c r="J41">
+        <f>SUM(J25:J40)</f>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
